--- a/Pos_check.xlsx
+++ b/Pos_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AssortRock_Me\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C9E180-9D6E-4704-8E44-8F16CCC8F183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493398A-570C-48EF-A7F0-6D6D991C6135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE265E0F-53DB-4B50-9279-783F97B54CA2}"/>
   </bookViews>
@@ -65,15 +65,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -96,13 +102,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -112,8 +180,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,104 +518,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C529319D-7BA0-444D-84A2-CF017E1C4E39}">
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="5.625" style="2"/>
+    <col min="1" max="1" width="5.625" style="2"/>
+    <col min="2" max="3" width="3.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3">
+    <row r="2" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+      <c r="D2" s="9">
         <v>96</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>128</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>160</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <v>192</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <v>224</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>256</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>288</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="9">
         <v>320</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="9">
         <v>352</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="9">
         <v>384</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>416</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="9">
         <v>448</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="9">
         <v>480</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="3">
+      <c r="Q2" s="9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>32</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>64</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>96</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>128</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>160</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>192</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="7">
         <v>224</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>256</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <v>288</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="7">
         <v>320</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="7">
         <v>352</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="7">
         <v>384</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="Q3" s="7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
         <v>64</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -568,12 +667,15 @@
       <c r="P4" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="Q4" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
         <v>96</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>32</v>
       </c>
       <c r="D5" s="1">
@@ -591,12 +693,13 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
         <v>128</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>64</v>
       </c>
       <c r="D6" s="1">
@@ -614,12 +717,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
         <v>160</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>96</v>
       </c>
       <c r="D7" s="1">
@@ -637,12 +741,13 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
         <v>192</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>128</v>
       </c>
       <c r="D8" s="1">
@@ -660,12 +765,13 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
         <v>224</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>160</v>
       </c>
       <c r="D9" s="1">
@@ -683,12 +789,13 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <v>256</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>192</v>
       </c>
       <c r="D10" s="1">
@@ -706,12 +813,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <v>288</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>224</v>
       </c>
       <c r="D11" s="1">
@@ -729,12 +837,14 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="Q11" s="3"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
         <v>320</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>256</v>
       </c>
       <c r="D12" s="1">
@@ -752,12 +862,13 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <v>352</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>288</v>
       </c>
       <c r="D13" s="1">
@@ -775,12 +886,13 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <v>384</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>320</v>
       </c>
       <c r="D14" s="1">
@@ -798,6 +910,31 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>416</v>
+      </c>
+      <c r="C15" s="5">
+        <v>352</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pos_check.xlsx
+++ b/Pos_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AssortRock_Me\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493398A-570C-48EF-A7F0-6D6D991C6135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F64EA8-144C-482F-9D14-3703CD033C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE265E0F-53DB-4B50-9279-783F97B54CA2}"/>
   </bookViews>
@@ -20,22 +20,8 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,8 +64,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -164,13 +168,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,14 +270,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C529319D-7BA0-444D-84A2-CF017E1C4E39}">
-  <dimension ref="B2:W15"/>
+  <dimension ref="B2:Y15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -531,52 +699,54 @@
     <col min="4" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="4"/>
-      <c r="D2" s="9">
+    <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10">
         <v>96</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>128</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>160</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>192</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>224</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>256</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>288</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>320</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>352</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>384</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>416</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="10">
         <v>448</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="10">
         <v>480</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6">
         <v>0</v>
@@ -620,9 +790,15 @@
       <c r="Q3" s="7">
         <v>416</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>64</v>
       </c>
       <c r="C4" s="5">
@@ -670,9 +846,15 @@
       <c r="Q4" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>96</v>
       </c>
       <c r="C5" s="5">
@@ -694,9 +876,19 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="36">
+        <v>-16</v>
+      </c>
+      <c r="W5" s="35">
+        <v>16</v>
+      </c>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="18"/>
+    </row>
+    <row r="6" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>128</v>
       </c>
       <c r="C6" s="5">
@@ -718,9 +910,18 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="25">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>160</v>
       </c>
       <c r="C7" s="5">
@@ -742,9 +943,19 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="T7" s="40">
+        <v>-16</v>
+      </c>
+      <c r="U7" s="20"/>
+      <c r="V7" s="41">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="17"/>
+    </row>
+    <row r="8" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>192</v>
       </c>
       <c r="C8" s="5">
@@ -766,9 +977,19 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+      <c r="T8" s="39">
+        <v>16</v>
+      </c>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>224</v>
       </c>
       <c r="C9" s="5">
@@ -790,9 +1011,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="T9" s="18"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="18"/>
+    </row>
+    <row r="10" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>256</v>
       </c>
       <c r="C10" s="5">
@@ -814,9 +1041,19 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="38">
+        <v>-16</v>
+      </c>
+      <c r="W10" s="37">
+        <v>16</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>288</v>
       </c>
       <c r="C11" s="5">
@@ -838,10 +1075,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>320</v>
       </c>
       <c r="C12" s="5">
@@ -863,9 +1105,15 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>352</v>
       </c>
       <c r="C13" s="5">
@@ -888,8 +1136,8 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+    <row r="14" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>384</v>
       </c>
       <c r="C14" s="5">
@@ -912,8 +1160,8 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8">
+    <row r="15" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>416</v>
       </c>
       <c r="C15" s="5">

--- a/Pos_check.xlsx
+++ b/Pos_check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AssortRock_Me\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[Visual_Studio]\00_Assort_Rock\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F64EA8-144C-482F-9D14-3703CD033C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAE80A-E46B-45DA-9E11-AA5757B5A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE265E0F-53DB-4B50-9279-783F97B54CA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{CE265E0F-53DB-4B50-9279-783F97B54CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 플레이어의 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리와 다리 모두 64 * 64의 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피봇은 BOT으로 맞춰져 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리는 위치가 64 * 0.5 만큼 아래쪽으로 움직인 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 순정 위치 == {112, 80}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TILESIZE의 절반 만큼 위치가 조정되어 있기 때문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,8 +87,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +135,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -245,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,22 +359,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,9 +386,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,7 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,26 +413,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,20 +760,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C529319D-7BA0-444D-84A2-CF017E1C4E39}">
-  <dimension ref="B2:Y15"/>
+  <dimension ref="B2:AE15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2"/>
-    <col min="2" max="3" width="3.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="5.625" style="2"/>
+    <col min="1" max="1" width="5.59765625" style="2"/>
+    <col min="2" max="3" width="3.59765625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="5.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
@@ -745,7 +819,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6">
@@ -790,14 +864,8 @@
       <c r="Q3" s="7">
         <v>416</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11">
         <v>64</v>
       </c>
@@ -846,14 +914,11 @@
       <c r="Q4" s="3">
         <v>13</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-    </row>
-    <row r="5" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>96</v>
       </c>
@@ -876,18 +941,20 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="3"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="36">
+      <c r="U5" s="17"/>
+      <c r="V5" s="22">
         <v>-16</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="32">
         <v>16</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="18"/>
-    </row>
-    <row r="6" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="20"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+    </row>
+    <row r="6" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>128</v>
       </c>
@@ -910,17 +977,21 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="25">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="22">
         <v>-16</v>
       </c>
-    </row>
-    <row r="7" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+    </row>
+    <row r="7" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>160</v>
       </c>
@@ -943,18 +1014,24 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
-      <c r="T7" s="40">
+      <c r="T7" s="36">
         <v>-16</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="41">
+      <c r="U7" s="18"/>
+      <c r="V7" s="37">
         <v>0</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="16"/>
+      <c r="AB7" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+    </row>
+    <row r="8" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>192</v>
       </c>
@@ -977,18 +1054,22 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
-      <c r="T8" s="39">
+      <c r="T8" s="35">
         <v>16</v>
       </c>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="30">
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+    </row>
+    <row r="9" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11">
         <v>224</v>
       </c>
@@ -1011,14 +1092,18 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="3"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="18"/>
-    </row>
-    <row r="10" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="19"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="21"/>
+      <c r="AB9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+    </row>
+    <row r="10" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11">
         <v>256</v>
       </c>
@@ -1041,18 +1126,20 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="38">
+      <c r="U10" s="17"/>
+      <c r="V10" s="34">
         <v>-16</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="33">
         <v>16</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="18"/>
-    </row>
-    <row r="11" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="20"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+    </row>
+    <row r="11" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11">
         <v>288</v>
       </c>
@@ -1075,14 +1162,11 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-    </row>
-    <row r="12" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11">
         <v>320</v>
       </c>
@@ -1105,14 +1189,14 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="3"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11">
         <v>352</v>
       </c>
@@ -1135,8 +1219,14 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11">
         <v>384</v>
       </c>
@@ -1160,7 +1250,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11">
         <v>416</v>
       </c>
@@ -1185,6 +1275,10 @@
       <c r="Q15" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AB7:AE8"/>
+    <mergeCell ref="AB9:AE10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
